--- a/biology/Médecine/Rhumatologie/Rhumatologie.xlsx
+++ b/biology/Médecine/Rhumatologie/Rhumatologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La rhumatologie est une spécialité médicale qui s'intéresse au diagnostic et au traitement des maladies de l'appareil locomoteur, c'est-à-dire des maladies des os, des articulations, des muscles, des tendons et des ligaments. Les rhumatologues (médecins spécialisés en rhumatologie) soignent également certaines affections neurologiques périphériques comme la sciatique et surtout l'ensemble des rhumatismes inflammatoires et maladies auto-immunes qui peuvent avoir de nombreuses manifestations extra-articulaires : peau, yeux, reins, intestins, poumons, etc.
 </t>
@@ -511,7 +523,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces pathologies peuvent être classées en familles :
 maladies inflammatoires : polyarthrite rhumatoïde, spondylarthrite ankylosante, lupus érythémateux disséminé… en général d'origine auto-immune
@@ -550,7 +564,9 @@
           <t>Maladies inflammatoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ostéomyélite
@@ -610,8 +626,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maladies inflammatoires
-Les anti-inflammatoires non-stéroïdiens (ou AINS) sont souvent utilisés en premier lieu pour le diagnostic et pour contrer l'inflammation
+          <t>Maladies inflammatoires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anti-inflammatoires non-stéroïdiens (ou AINS) sont souvent utilisés en premier lieu pour le diagnostic et pour contrer l'inflammation
 Les traitements de fond type salazopyrine en encore méthotrexate sont utilisés quand les AINS ne sont plus suffisants ou lorsqu'ils ont produit des effets secondaires
 Les biothérapies ou biosimilaires (anti-TNF alpha par exemple) dans les cas de maladies sévères, très douloureuses et/ou handicapantes
 Les antalgiques sont souvent très utiles
